--- a/biology/Microbiologie/Mycolicibacillus/Mycolicibacillus.xlsx
+++ b/biology/Microbiologie/Mycolicibacillus/Mycolicibacillus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mycolicibacillus est un genre de Mycobactéries créé en 2018 à la suite de la révision du genre Mycobacterium par R.S. Gupta et al.[1] Cette création a été reprise par une publication dans l'IJSEM, validant ainsi les nouveaux noms binomiaux[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mycolicibacillus est un genre de Mycobactéries créé en 2018 à la suite de la révision du genre Mycobacterium par R.S. Gupta et al. Cette création a été reprise par une publication dans l'IJSEM, validant ainsi les nouveaux noms binomiaux.
 </t>
         </is>
       </c>
@@ -513,12 +525,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Selon la LPSN
-Provisoirement surnommé « clade Triviale » par ses auteurs, ce nouveau taxon est le plus petit des quatre nouveaux genres créés à cette occasion. Avec Mycolicibacter c'est aussi l'un des deux les plus proches du nouveau genre Mycobacterium et il se compose exclusivement d'espèces auparavant classées dans celui-ci[3] :
+          <t>Selon la LPSN</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Provisoirement surnommé « clade Triviale » par ses auteurs, ce nouveau taxon est le plus petit des quatre nouveaux genres créés à cette occasion. Avec Mycolicibacter c'est aussi l'un des deux les plus proches du nouveau genre Mycobacterium et il se compose exclusivement d'espèces auparavant classées dans celui-ci :
 Mycolicibacillus trivialis (Kubica et al. 1970) Gupta et al. 2018 comb. nov. : espèce type de description du genre
 Mycolicibacillus koreensis (Kim et al. 2012) Gupta et al. 2018 comb. nov.
 Mycolicibacillus parakoreensis (Kim et al. 2013) Gupta et al. 2018 comb. nov.
-Ces nouveaux noms binomiaux sont des synonymes. Comme l'ont souligné plusieurs microbiologistes spécialistes, l'usage des anciens noms binomiaux (avec « Mycobacterium » à la place de « Mycolicibacillus ») est toujours admis[4],[5].
+Ces nouveaux noms binomiaux sont des synonymes. Comme l'ont souligné plusieurs microbiologistes spécialistes, l'usage des anciens noms binomiaux (avec « Mycobacterium » à la place de « Mycolicibacillus ») est toujours admis,.
 </t>
         </is>
       </c>
